--- a/po_analysis_by_asin/B07R89QZXM_po_data.xlsx
+++ b/po_analysis_by_asin/B07R89QZXM_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,65 +452,233 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45530</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45537</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45544</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45551</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45558</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45565</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45572</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B30" t="n">
         <v>4</v>
       </c>
     </row>
@@ -525,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,25 +715,73 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45505</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45536</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45566</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B4" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45077.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45107.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45138.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B10" t="n">
         <v>24</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B07R89QZXM_po_data.xlsx
+++ b/po_analysis_by_asin/B07R89QZXM_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,47 +564,47 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45088.99999999999</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45095.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45102.99999999999</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45116.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>16</v>
@@ -612,73 +612,17 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45536.99999999999</v>
-      </c>
-      <c r="B24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45543.99999999999</v>
-      </c>
-      <c r="B25" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45550.99999999999</v>
-      </c>
-      <c r="B26" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45557.99999999999</v>
-      </c>
-      <c r="B27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>45564.99999999999</v>
-      </c>
-      <c r="B28" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>45571.99999999999</v>
-      </c>
-      <c r="B29" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45578.99999999999</v>
-      </c>
-      <c r="B30" t="n">
         <v>4</v>
       </c>
     </row>
@@ -693,7 +637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,41 +691,25 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45107.99999999999</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45138.99999999999</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45535.99999999999</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45565.99999999999</v>
-      </c>
-      <c r="B9" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45596.99999999999</v>
-      </c>
-      <c r="B10" t="n">
         <v>24</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B07R89QZXM_po_data.xlsx
+++ b/po_analysis_by_asin/B07R89QZXM_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -653,7 +654,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -711,6 +712,467 @@
       </c>
       <c r="B8" t="n">
         <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.2529461816881701</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.45614474312756</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.2001062006925848</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.61927558843259</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9144775973765219</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.55230068048852</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.716366537840976</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.29901449555035</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5300781986441457</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.91001860702349</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1240553079799721</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.60075462958339</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5374278546221154</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.647784764534</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8168153585000472</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14.80988313340106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2529234001344964</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14.76938307219815</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.074600885031107</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14.88804913918709</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6411736049327722</v>
+      </c>
+      <c r="D12" t="n">
+        <v>15.02632233187541</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5090242335647437</v>
+      </c>
+      <c r="D13" t="n">
+        <v>15.10156669788183</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.309119122552987</v>
+      </c>
+      <c r="D14" t="n">
+        <v>15.52427186108896</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.172652390230297</v>
+      </c>
+      <c r="D15" t="n">
+        <v>15.04468603118458</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>13</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.6216339657128</v>
+      </c>
+      <c r="D16" t="n">
+        <v>20.54527982074802</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>14</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.865095179145324</v>
+      </c>
+      <c r="D17" t="n">
+        <v>20.65951566594298</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>14</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.618366891886208</v>
+      </c>
+      <c r="D18" t="n">
+        <v>20.89182330390041</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>14</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.775333095319407</v>
+      </c>
+      <c r="D19" t="n">
+        <v>20.45356002553279</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>14</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6.847339899714221</v>
+      </c>
+      <c r="D20" t="n">
+        <v>20.90653876370589</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>14</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.404646037295858</v>
+      </c>
+      <c r="D21" t="n">
+        <v>20.8794325776808</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>14</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.748802490744437</v>
+      </c>
+      <c r="D22" t="n">
+        <v>21.28220637500882</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>14</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7.42162876140272</v>
+      </c>
+      <c r="D23" t="n">
+        <v>21.03509427243883</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>14</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7.748919023086518</v>
+      </c>
+      <c r="D24" t="n">
+        <v>21.20680417359095</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>14</v>
+      </c>
+      <c r="C25" t="n">
+        <v>7.22580349938072</v>
+      </c>
+      <c r="D25" t="n">
+        <v>21.11637952867225</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>14</v>
+      </c>
+      <c r="C26" t="n">
+        <v>7.424454561447041</v>
+      </c>
+      <c r="D26" t="n">
+        <v>21.54500872051289</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>15</v>
+      </c>
+      <c r="C27" t="n">
+        <v>7.356449824275005</v>
+      </c>
+      <c r="D27" t="n">
+        <v>21.19601169522509</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>15</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7.350448421849667</v>
+      </c>
+      <c r="D28" t="n">
+        <v>21.57608314931372</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>15</v>
+      </c>
+      <c r="C29" t="n">
+        <v>7.337900283894497</v>
+      </c>
+      <c r="D29" t="n">
+        <v>21.94828359320979</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>15</v>
+      </c>
+      <c r="C30" t="n">
+        <v>7.884594047080689</v>
+      </c>
+      <c r="D30" t="n">
+        <v>21.99002851709307</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>15</v>
+      </c>
+      <c r="C31" t="n">
+        <v>7.939382827519296</v>
+      </c>
+      <c r="D31" t="n">
+        <v>21.89584363765604</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B07R89QZXM_po_data.xlsx
+++ b/po_analysis_by_asin/B07R89QZXM_po_data.xlsx
@@ -725,7 +725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,16 +744,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -762,12 +752,6 @@
       <c r="B2" t="n">
         <v>7</v>
       </c>
-      <c r="C2" t="n">
-        <v>-0.2529461816881701</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.45614474312756</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -776,12 +760,6 @@
       <c r="B3" t="n">
         <v>7</v>
       </c>
-      <c r="C3" t="n">
-        <v>-0.2001062006925848</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.61927558843259</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -790,12 +768,6 @@
       <c r="B4" t="n">
         <v>7</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.9144775973765219</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.55230068048852</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -804,12 +776,6 @@
       <c r="B5" t="n">
         <v>7</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.716366537840976</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.29901449555035</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -818,12 +784,6 @@
       <c r="B6" t="n">
         <v>7</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.5300781986441457</v>
-      </c>
-      <c r="D6" t="n">
-        <v>14.91001860702349</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -832,12 +792,6 @@
       <c r="B7" t="n">
         <v>8</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.1240553079799721</v>
-      </c>
-      <c r="D7" t="n">
-        <v>14.60075462958339</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -846,12 +800,6 @@
       <c r="B8" t="n">
         <v>8</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.5374278546221154</v>
-      </c>
-      <c r="D8" t="n">
-        <v>14.647784764534</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -860,12 +808,6 @@
       <c r="B9" t="n">
         <v>8</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.8168153585000472</v>
-      </c>
-      <c r="D9" t="n">
-        <v>14.80988313340106</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -874,12 +816,6 @@
       <c r="B10" t="n">
         <v>8</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.2529234001344964</v>
-      </c>
-      <c r="D10" t="n">
-        <v>14.76938307219815</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -888,12 +824,6 @@
       <c r="B11" t="n">
         <v>8</v>
       </c>
-      <c r="C11" t="n">
-        <v>1.074600885031107</v>
-      </c>
-      <c r="D11" t="n">
-        <v>14.88804913918709</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -902,12 +832,6 @@
       <c r="B12" t="n">
         <v>8</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.6411736049327722</v>
-      </c>
-      <c r="D12" t="n">
-        <v>15.02632233187541</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -916,12 +840,6 @@
       <c r="B13" t="n">
         <v>8</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.5090242335647437</v>
-      </c>
-      <c r="D13" t="n">
-        <v>15.10156669788183</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -930,12 +848,6 @@
       <c r="B14" t="n">
         <v>8</v>
       </c>
-      <c r="C14" t="n">
-        <v>1.309119122552987</v>
-      </c>
-      <c r="D14" t="n">
-        <v>15.52427186108896</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -944,12 +856,6 @@
       <c r="B15" t="n">
         <v>8</v>
       </c>
-      <c r="C15" t="n">
-        <v>1.172652390230297</v>
-      </c>
-      <c r="D15" t="n">
-        <v>15.04468603118458</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -958,12 +864,6 @@
       <c r="B16" t="n">
         <v>13</v>
       </c>
-      <c r="C16" t="n">
-        <v>6.6216339657128</v>
-      </c>
-      <c r="D16" t="n">
-        <v>20.54527982074802</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -972,12 +872,6 @@
       <c r="B17" t="n">
         <v>14</v>
       </c>
-      <c r="C17" t="n">
-        <v>6.865095179145324</v>
-      </c>
-      <c r="D17" t="n">
-        <v>20.65951566594298</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -986,12 +880,6 @@
       <c r="B18" t="n">
         <v>14</v>
       </c>
-      <c r="C18" t="n">
-        <v>6.618366891886208</v>
-      </c>
-      <c r="D18" t="n">
-        <v>20.89182330390041</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1000,12 +888,6 @@
       <c r="B19" t="n">
         <v>14</v>
       </c>
-      <c r="C19" t="n">
-        <v>6.775333095319407</v>
-      </c>
-      <c r="D19" t="n">
-        <v>20.45356002553279</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1014,12 +896,6 @@
       <c r="B20" t="n">
         <v>14</v>
       </c>
-      <c r="C20" t="n">
-        <v>6.847339899714221</v>
-      </c>
-      <c r="D20" t="n">
-        <v>20.90653876370589</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1028,12 +904,6 @@
       <c r="B21" t="n">
         <v>14</v>
       </c>
-      <c r="C21" t="n">
-        <v>6.404646037295858</v>
-      </c>
-      <c r="D21" t="n">
-        <v>20.8794325776808</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1042,12 +912,6 @@
       <c r="B22" t="n">
         <v>14</v>
       </c>
-      <c r="C22" t="n">
-        <v>6.748802490744437</v>
-      </c>
-      <c r="D22" t="n">
-        <v>21.28220637500882</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1056,12 +920,6 @@
       <c r="B23" t="n">
         <v>14</v>
       </c>
-      <c r="C23" t="n">
-        <v>7.42162876140272</v>
-      </c>
-      <c r="D23" t="n">
-        <v>21.03509427243883</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1070,12 +928,6 @@
       <c r="B24" t="n">
         <v>14</v>
       </c>
-      <c r="C24" t="n">
-        <v>7.748919023086518</v>
-      </c>
-      <c r="D24" t="n">
-        <v>21.20680417359095</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1084,12 +936,6 @@
       <c r="B25" t="n">
         <v>14</v>
       </c>
-      <c r="C25" t="n">
-        <v>7.22580349938072</v>
-      </c>
-      <c r="D25" t="n">
-        <v>21.11637952867225</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1098,12 +944,6 @@
       <c r="B26" t="n">
         <v>14</v>
       </c>
-      <c r="C26" t="n">
-        <v>7.424454561447041</v>
-      </c>
-      <c r="D26" t="n">
-        <v>21.54500872051289</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1112,12 +952,6 @@
       <c r="B27" t="n">
         <v>15</v>
       </c>
-      <c r="C27" t="n">
-        <v>7.356449824275005</v>
-      </c>
-      <c r="D27" t="n">
-        <v>21.19601169522509</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1126,12 +960,6 @@
       <c r="B28" t="n">
         <v>15</v>
       </c>
-      <c r="C28" t="n">
-        <v>7.350448421849667</v>
-      </c>
-      <c r="D28" t="n">
-        <v>21.57608314931372</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1140,12 +968,6 @@
       <c r="B29" t="n">
         <v>15</v>
       </c>
-      <c r="C29" t="n">
-        <v>7.337900283894497</v>
-      </c>
-      <c r="D29" t="n">
-        <v>21.94828359320979</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1154,12 +976,6 @@
       <c r="B30" t="n">
         <v>15</v>
       </c>
-      <c r="C30" t="n">
-        <v>7.884594047080689</v>
-      </c>
-      <c r="D30" t="n">
-        <v>21.99002851709307</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1167,12 +983,6 @@
       </c>
       <c r="B31" t="n">
         <v>15</v>
-      </c>
-      <c r="C31" t="n">
-        <v>7.939382827519296</v>
-      </c>
-      <c r="D31" t="n">
-        <v>21.89584363765604</v>
       </c>
     </row>
   </sheetData>
